--- a/Warehouse Management Application/RTM/RTM.xlsx
+++ b/Warehouse Management Application/RTM/RTM.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B05100C-42B1-4C86-995D-ED1BE476C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3244840-9D25-4592-9C09-C54587FCAE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1572" yWindow="1680" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Req</t>
   </si>
@@ -42,170 +53,191 @@
     <t>IT Mapping</t>
   </si>
   <si>
-    <t>IT_1</t>
-  </si>
-  <si>
-    <t>IT_2</t>
-  </si>
-  <si>
-    <t>IT_3</t>
-  </si>
-  <si>
-    <t>IT_4</t>
-  </si>
-  <si>
     <t>REQ_01</t>
   </si>
   <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>add_supplier()</t>
+  </si>
+  <si>
+    <t>Supplier_003(R.Q 1,2)</t>
+  </si>
+  <si>
+    <t>LOGIN_001 (R.Q 1.0)</t>
+  </si>
+  <si>
+    <t>REQ_02</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>add_stockist()</t>
+  </si>
+  <si>
+    <t>Stockist_003(R.Q 2)</t>
+  </si>
+  <si>
+    <t>REQ_03</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>supplier_add_product()</t>
+  </si>
+  <si>
+    <t>Supplier_002(R.Q 3)</t>
+  </si>
+  <si>
+    <t>SUP_001(R.Q  3)</t>
+  </si>
+  <si>
+    <t>REQ_04</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>view_selected_product() +check_status(id)</t>
+  </si>
+  <si>
+    <t>REQ_05</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>supplier_edit_details()</t>
+  </si>
+  <si>
+    <t>AD_004(R.Q 5)</t>
+  </si>
+  <si>
+    <t>REQ_06</t>
+  </si>
+  <si>
+    <t>6.1.6</t>
+  </si>
+  <si>
+    <t>delete_customer()</t>
+  </si>
+  <si>
+    <t>Supplier_001(R.Q 6)</t>
+  </si>
+  <si>
+    <t>REQ_07</t>
+  </si>
+  <si>
+    <t>6.1.7</t>
+  </si>
+  <si>
+    <t>order_items(n)</t>
+  </si>
+  <si>
+    <t>Stockist_002(R.Q 7)</t>
+  </si>
+  <si>
+    <t>STK_002(R.Q 7)</t>
+  </si>
+  <si>
+    <t>REQ_08</t>
+  </si>
+  <si>
+    <t>6.1.8</t>
+  </si>
+  <si>
+    <t>request_for_items()</t>
+  </si>
+  <si>
+    <t>STK_001(R.Q 8)</t>
+  </si>
+  <si>
+    <t>REQ_09</t>
+  </si>
+  <si>
+    <t>6.1.9</t>
+  </si>
+  <si>
+    <t>stockist_edit_details()</t>
+  </si>
+  <si>
+    <t>Stockist_001(R.Q 9)</t>
+  </si>
+  <si>
+    <t>REQ_10</t>
+  </si>
+  <si>
+    <t>6.1.10</t>
+  </si>
+  <si>
+    <t>add_supplier()+add_stockist()+edit_suppier()+edit_stockist()</t>
+  </si>
+  <si>
+    <t>AD_002(R.Q 10)</t>
+  </si>
+  <si>
+    <t>REQ_11</t>
+  </si>
+  <si>
+    <t>6.1.11</t>
+  </si>
+  <si>
+    <t>rol_check()</t>
+  </si>
+  <si>
     <t>REQ_12</t>
   </si>
   <si>
-    <t>delete_customer()</t>
-  </si>
-  <si>
-    <t>REQ_02</t>
-  </si>
-  <si>
-    <t>REQ_03</t>
-  </si>
-  <si>
-    <t>REQ_04</t>
-  </si>
-  <si>
-    <t>REQ_05</t>
-  </si>
-  <si>
-    <t>REQ_06</t>
-  </si>
-  <si>
-    <t>REQ_07</t>
-  </si>
-  <si>
-    <t>REQ_08</t>
-  </si>
-  <si>
-    <t>REQ_09</t>
-  </si>
-  <si>
-    <t>REQ_10</t>
-  </si>
-  <si>
-    <t>REQ_11</t>
-  </si>
-  <si>
-    <t>Test_Case2</t>
-  </si>
-  <si>
-    <t>Test_Case1</t>
+    <t>6.1.12</t>
+  </si>
+  <si>
+    <t>file_to_list_transaction()+list_to_file_transaction()</t>
+  </si>
+  <si>
+    <t>AD_003(R.Q 12)</t>
   </si>
   <si>
     <t>REQ_13</t>
   </si>
   <si>
+    <t>6.1.13</t>
+  </si>
+  <si>
+    <t>display_report_item()</t>
+  </si>
+  <si>
     <t>REQ_14</t>
   </si>
   <si>
+    <t>6.1.14</t>
+  </si>
+  <si>
+    <t>view_supplier()</t>
+  </si>
+  <si>
     <t>REQ_15</t>
   </si>
   <si>
+    <t>6.1.15</t>
+  </si>
+  <si>
+    <t>display_report_stockist()</t>
+  </si>
+  <si>
     <t>REQ_16</t>
   </si>
   <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>6.1.3</t>
-  </si>
-  <si>
-    <t>6.1.4</t>
-  </si>
-  <si>
-    <t>6.1.5</t>
-  </si>
-  <si>
-    <t>6.1.6</t>
-  </si>
-  <si>
-    <t>6.1.7</t>
-  </si>
-  <si>
-    <t>6.1.8</t>
-  </si>
-  <si>
-    <t>6.1.9</t>
-  </si>
-  <si>
-    <t>6.1.10</t>
-  </si>
-  <si>
-    <t>6.1.11</t>
-  </si>
-  <si>
-    <t>6.1.12</t>
-  </si>
-  <si>
-    <t>6.1.13</t>
-  </si>
-  <si>
-    <t>6.1.14</t>
-  </si>
-  <si>
-    <t>6.1.15</t>
-  </si>
-  <si>
     <t>6.1.16</t>
-  </si>
-  <si>
-    <t>add_supplier()</t>
-  </si>
-  <si>
-    <t>add_stockist()</t>
-  </si>
-  <si>
-    <t>supplier_add_product()</t>
-  </si>
-  <si>
-    <t>view_selected_product() +check_status(id)</t>
-  </si>
-  <si>
-    <t>supplier_edit_details()</t>
-  </si>
-  <si>
-    <t>order_items(n)</t>
-  </si>
-  <si>
-    <t>request_for_items()</t>
-  </si>
-  <si>
-    <t>stockist_edit_details()</t>
-  </si>
-  <si>
-    <t>add_supplier()+add_stockist()+edit_suppier()+edit_stockist()</t>
-  </si>
-  <si>
-    <t>rol_check()</t>
-  </si>
-  <si>
-    <t>display_report_item()</t>
-  </si>
-  <si>
-    <t>view_supplier()</t>
-  </si>
-  <si>
-    <t>display_report_stockist()</t>
-  </si>
-  <si>
-    <t>file_to_list_transaction()+list_to_file_transaction()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,16 +256,16 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -249,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,30 +315,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,263 +639,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.9">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF4DFB03152484682195B4E7E062471" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e16c91b9b5cc5fda2875158cf161182f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad7b9098-a779-457c-aff0-c0a14edc8e5b" xmlns:ns3="42dd97dd-44c3-46c8-9626-3c38d3fffb94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e94b097880fb2473f49a87bb9cca31eb" ns2:_="" ns3:_="">
     <xsd:import namespace="ad7b9098-a779-457c-aff0-c0a14edc8e5b"/>
@@ -1052,15 +1127,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1072,13 +1138,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A645B258-4F81-43B6-99F2-27040EA6C123}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F28C63-DDD5-4A17-B467-952767BA4105}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D4FB41E-807B-4EB2-9C83-9893D658387E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6625C9E-E46B-4A49-BBBB-BE4EA2409EE2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11F74CC0-251C-430A-BE18-1E9A36B119E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED105CF-9FF7-4642-A337-D12C94736CB7}"/>
 </file>